--- a/IDSL.NPA/inst/extdata/NPA_parameters.xlsx
+++ b/IDSL.NPA/inst/extdata/NPA_parameters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="621" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="621" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Start" sheetId="8" r:id="rId1"/>
@@ -888,6 +888,645 @@
     <t>SPEC0004</t>
   </si>
   <si>
+    <t>Match precursor m/z</t>
+  </si>
+  <si>
+    <t>Minimum number of matched peaks</t>
+  </si>
+  <si>
+    <t>≥ 1</t>
+  </si>
+  <si>
+    <t>SPEC0015</t>
+  </si>
+  <si>
+    <t>Precursor adduct types</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Select </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to ignore precursor type match </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> provide a string vector of precursor types. Precursor types should be inside brackets and quotation marks and preferably with +/- polarity signs. (Ex: c("[M]+", "[M+H]+"))</t>
+    </r>
+  </si>
+  <si>
+    <t>SPEC0010</t>
+  </si>
+  <si>
+    <t>SPEC0016</t>
+  </si>
+  <si>
+    <t>SPEC0019</t>
+  </si>
+  <si>
+    <t>Maximum number of top hits spectra figures for plotting module</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">≥ 0 (select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Inf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to export all spectra figures)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Minimum percentage of the matched library and sample spectra markers (%) specified by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SPEC0009</t>
+    </r>
+  </si>
+  <si>
+    <t>≥ 0 (Default = 2)</t>
+  </si>
+  <si>
+    <t>List of HRMS files (.mzXML/.mzML/.CDF)</t>
+  </si>
+  <si>
+    <r>
+      <t>Output location (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.msp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> files and EICs)</t>
+    </r>
+  </si>
+  <si>
+    <t>https://github.com/idslme/IDSL.FSA/wiki/Spectral-Similarity-Metrics</t>
+  </si>
+  <si>
+    <t>https://github.com/idslme/IDSL.FSA/wiki/MSP-Standardizations#standardizing-precursor-types</t>
+  </si>
+  <si>
+    <t>Select "Sample Mode" or "Peak Mode"</t>
+  </si>
+  <si>
+    <t>Sample Mode</t>
+  </si>
+  <si>
+    <t>Minimum distance (Da) between lowest and highest matched m/z to prevent matching only isotopic envelopes</t>
+  </si>
+  <si>
+    <t>SPEC0017</t>
+  </si>
+  <si>
+    <t>SPEC0020</t>
+  </si>
+  <si>
+    <t>Unique tag aggregation by spectra similarity across entire samples</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Weighted spectra to measure entropy similarity score. Weighted functions are used to boost the intensity of low abundant peaks described by Li </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>et. al.,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2021</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Nature Methods</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>Retention time window (min) to find NPA spectra variants or match reference spreadsheet compounds</t>
+  </si>
+  <si>
+    <t>NPA0019</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Optional:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Address of the reference standard metadata file to generate a list of targeted NPA blocks</t>
+    </r>
+  </si>
+  <si>
+    <t>Minimum distance (Da) between lowest and highest m/z to prevent clustering only isotopic envelopes</t>
+  </si>
+  <si>
+    <t>Minimum number of ions in a NPA cluster</t>
+  </si>
+  <si>
+    <t>NPA0020</t>
+  </si>
+  <si>
+    <t>NPA0021</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Select "All" to include the entire </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.msp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> libraries or a list of semicolon separated</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> libraries in the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.msp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> format.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Address to save the FSDB library in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.Rdata</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> format</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Select </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> or provide an address to save the FSDB</t>
+    </r>
+  </si>
+  <si>
+    <t>FSdb0004</t>
+  </si>
+  <si>
+    <t>FSDB file name</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Follow the naming rules in R! IDSL.FSA can generate the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.Rdata</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> format</t>
+    </r>
+  </si>
+  <si>
+    <t>Process individual IDSL.IPA peaklist</t>
+  </si>
+  <si>
+    <t>Create a library of unique spectra variants</t>
+  </si>
+  <si>
+    <t>Global NPA (required)</t>
+  </si>
+  <si>
+    <t>Export classified spectra plots for individual unique spectra</t>
+  </si>
+  <si>
+    <t>NPA0022</t>
+  </si>
+  <si>
+    <t>NPA0023</t>
+  </si>
+  <si>
+    <t>NPA0024</t>
+  </si>
+  <si>
+    <t>Minimum frequency (%) of detection for NPA spectra across all .msp files for untargeted NPA spectra</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Aggregation meta-variable (only when </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NPA0005</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is provided)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Provide a meta-variable from the reference spreadsheet (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NPA0005</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>≥ 0.001 When the reference spreadsheet is provided (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NPA0005</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">), spectra aggregation is performed only using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NPA0019</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> regardless of retention time proximity.</t>
+    </r>
+  </si>
+  <si>
+    <t>"YES" OR "NO", When "YES", fill out NPA0009-NPA0018.</t>
+  </si>
+  <si>
+    <t>"YES" OR "NO", When "YES", fill out NPA0019-NPA0024.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Select </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> or provide a spreadsheet in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.xlsx/.csv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> formats with four column headers of 'Filename', 'Name', 'MZ', 'RT' (case sensitive). For </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.txt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> files, headers should be  'Name', 'MZ', 'RT' (case sensitive). You may provide more information in separate columns to enrich the output reference </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.msp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> files. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Address of the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.msp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> library (INPUT) msp files</t>
+    </r>
+  </si>
+  <si>
+    <t>https://github.com/idslme/IDSL.IPA/wiki/Parallelization-Mode</t>
+  </si>
+  <si>
+    <r>
+      <t>≥ 1 (Default = 10%) You may skip this parameter when the reference spreadsheet is provided (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NPA0005</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Select `0` in case precursor masses are reliable OR select </t>
     </r>
@@ -946,7 +1585,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> analyses and skipping this parameter for only one MS level DIA analyses such as </t>
+      <t xml:space="preserve"> analyses and skipping this parameter for only MS level 1 analyses such as </t>
     </r>
     <r>
       <rPr>
@@ -1004,645 +1643,6 @@
         <family val="2"/>
       </rPr>
       <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>Match precursor m/z</t>
-  </si>
-  <si>
-    <t>Minimum number of matched peaks</t>
-  </si>
-  <si>
-    <t>≥ 1</t>
-  </si>
-  <si>
-    <t>SPEC0015</t>
-  </si>
-  <si>
-    <t>Precursor adduct types</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Select </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>NA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> to ignore precursor type match </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>or</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> provide a string vector of precursor types. Precursor types should be inside brackets and quotation marks and preferably with +/- polarity signs. (Ex: c("[M]+", "[M+H]+"))</t>
-    </r>
-  </si>
-  <si>
-    <t>SPEC0010</t>
-  </si>
-  <si>
-    <t>SPEC0016</t>
-  </si>
-  <si>
-    <t>SPEC0019</t>
-  </si>
-  <si>
-    <t>Maximum number of top hits spectra figures for plotting module</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">≥ 0 (select </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Inf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> to export all spectra figures)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Minimum percentage of the matched library and sample spectra markers (%) specified by </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>SPEC0009</t>
-    </r>
-  </si>
-  <si>
-    <t>≥ 0 (Default = 2)</t>
-  </si>
-  <si>
-    <t>List of HRMS files (.mzXML/.mzML/.CDF)</t>
-  </si>
-  <si>
-    <r>
-      <t>Output location (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.msp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> files and EICs)</t>
-    </r>
-  </si>
-  <si>
-    <t>https://github.com/idslme/IDSL.FSA/wiki/Spectral-Similarity-Metrics</t>
-  </si>
-  <si>
-    <t>https://github.com/idslme/IDSL.FSA/wiki/MSP-Standardizations#standardizing-precursor-types</t>
-  </si>
-  <si>
-    <t>Select "Sample Mode" or "Peak Mode"</t>
-  </si>
-  <si>
-    <t>Sample Mode</t>
-  </si>
-  <si>
-    <t>Minimum distance (Da) between lowest and highest matched m/z to prevent matching only isotopic envelopes</t>
-  </si>
-  <si>
-    <t>SPEC0017</t>
-  </si>
-  <si>
-    <t>SPEC0020</t>
-  </si>
-  <si>
-    <t>Unique tag aggregation by spectra similarity across entire samples</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Weighted spectra to measure entropy similarity score. Weighted functions are used to boost the intensity of low abundant peaks described by Li </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>et. al.,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2021</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Nature Methods</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>Retention time window (min) to find NPA spectra variants or match reference spreadsheet compounds</t>
-  </si>
-  <si>
-    <t>NPA0019</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Optional:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Address of the reference standard metadata file to generate a list of targeted NPA blocks</t>
-    </r>
-  </si>
-  <si>
-    <t>Minimum distance (Da) between lowest and highest m/z to prevent clustering only isotopic envelopes</t>
-  </si>
-  <si>
-    <t>Minimum number of ions in a NPA cluster</t>
-  </si>
-  <si>
-    <t>NPA0020</t>
-  </si>
-  <si>
-    <t>NPA0021</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Select "All" to include the entire </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.msp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> libraries or a list of semicolon separated</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> libraries in the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.msp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> format.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Address to save the FSDB library in </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.Rdata</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> format</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Select </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>NA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> or provide an address to save the FSDB</t>
-    </r>
-  </si>
-  <si>
-    <t>FSdb0004</t>
-  </si>
-  <si>
-    <t>FSDB file name</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Follow the naming rules in R! IDSL.FSA can generate the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.Rdata</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> format</t>
-    </r>
-  </si>
-  <si>
-    <t>Process individual IDSL.IPA peaklist</t>
-  </si>
-  <si>
-    <t>Create a library of unique spectra variants</t>
-  </si>
-  <si>
-    <t>Global NPA (required)</t>
-  </si>
-  <si>
-    <t>Export classified spectra plots for individual unique spectra</t>
-  </si>
-  <si>
-    <t>NPA0022</t>
-  </si>
-  <si>
-    <t>NPA0023</t>
-  </si>
-  <si>
-    <t>NPA0024</t>
-  </si>
-  <si>
-    <t>Minimum frequency (%) of detection for NPA spectra across all .msp files for untargeted NPA spectra</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Aggregation meta-variable (only when </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>NPA0005</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> is provided)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Provide a meta-variable from the reference spreadsheet (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>NPA0005</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>≥ 0.001 When the reference spreadsheet is provided (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>NPA0005</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">), spectra aggregation is performed only using </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>NPA0019</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> regardless of retention time proximity.</t>
-    </r>
-  </si>
-  <si>
-    <t>"YES" OR "NO", When "YES", fill out NPA0009-NPA0018.</t>
-  </si>
-  <si>
-    <t>"YES" OR "NO", When "YES", fill out NPA0019-NPA0024.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Select </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>NA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> or provide a spreadsheet in </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.xlsx/.csv</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> formats with four column headers of 'Filename', 'Name', 'MZ', 'RT' (case sensitive). For </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.txt</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> files, headers should be  'Name', 'MZ', 'RT' (case sensitive). You may provide more information in separate columns to enrich the output reference </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.msp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> files. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Address of the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.msp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> library (INPUT) msp files</t>
-    </r>
-  </si>
-  <si>
-    <t>https://github.com/idslme/IDSL.IPA/wiki/Parallelization-Mode</t>
-  </si>
-  <si>
-    <r>
-      <t>≥ 1 (Default = 10%) You may skip this parameter when the reference spreadsheet is provided (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>NPA0005</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
     </r>
   </si>
 </sst>
@@ -1946,7 +1946,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2121,9 +2121,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2220,70 +2217,70 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2603,7 +2600,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="92" t="s">
         <v>96</v>
       </c>
       <c r="B2" s="47" t="s">
@@ -2620,7 +2617,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="94"/>
+      <c r="A3" s="92"/>
       <c r="B3" s="47" t="s">
         <v>61</v>
       </c>
@@ -2635,7 +2632,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="95"/>
+      <c r="A4" s="93"/>
       <c r="B4" s="54" t="s">
         <v>62</v>
       </c>
@@ -2650,7 +2647,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="94" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -2668,7 +2665,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="97"/>
+      <c r="A6" s="95"/>
       <c r="B6" s="11" t="s">
         <v>64</v>
       </c>
@@ -2684,7 +2681,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="98"/>
+      <c r="A7" s="96"/>
       <c r="B7" s="10" t="s">
         <v>65</v>
       </c>
@@ -2734,7 +2731,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2766,54 +2765,54 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="35" customFormat="1" ht="27.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="104" t="s">
-        <v>152</v>
-      </c>
-      <c r="B2" s="84" t="s">
+      <c r="A2" s="102" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="84" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="85" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="35" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="103"/>
+      <c r="B3" s="89" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="90" t="s">
         <v>150</v>
       </c>
-      <c r="D2" s="84" t="s">
+      <c r="D3" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="86" t="s">
+      <c r="E3" s="91" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="35" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="105"/>
-      <c r="B3" s="90" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="91" t="s">
-        <v>151</v>
-      </c>
-      <c r="D3" s="90" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="92" t="s">
-        <v>162</v>
-      </c>
-    </row>
     <row r="4" spans="1:7" s="35" customFormat="1" ht="28.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="106"/>
-      <c r="B4" s="87" t="s">
+      <c r="A4" s="104"/>
+      <c r="B4" s="86" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="87">
+      <c r="D4" s="86">
         <v>1</v>
       </c>
-      <c r="E4" s="89" t="s">
+      <c r="E4" s="88" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="35" customFormat="1" ht="38.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="107" t="s">
+      <c r="A5" s="105" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="45" t="s">
@@ -2828,27 +2827,27 @@
       <c r="E5" s="12"/>
     </row>
     <row r="6" spans="1:7" s="35" customFormat="1" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="107"/>
+      <c r="A6" s="105"/>
       <c r="B6" s="45" t="s">
         <v>72</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D6" s="37" t="s">
         <v>102</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="35" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="107"/>
+      <c r="A7" s="105"/>
       <c r="B7" s="37" t="s">
         <v>73</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D7" s="37" t="s">
         <v>10</v>
@@ -2858,7 +2857,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" s="35" customFormat="1" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="107"/>
+      <c r="A8" s="105"/>
       <c r="B8" s="37" t="s">
         <v>74</v>
       </c>
@@ -2873,12 +2872,12 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="108"/>
+      <c r="A9" s="106"/>
       <c r="B9" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="75" t="s">
-        <v>126</v>
+      <c r="C9" s="74" t="s">
+        <v>125</v>
       </c>
       <c r="D9" s="41" t="s">
         <v>86</v>
@@ -2887,25 +2886,25 @@
       <c r="G9" s="39"/>
     </row>
     <row r="10" spans="1:7" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="102" t="s">
+      <c r="A10" s="100" t="s">
         <v>93</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="73" t="s">
+      <c r="C10" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="72" t="s">
-        <v>130</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="D10" s="71" t="s">
         <v>129</v>
       </c>
+      <c r="E10" s="73" t="s">
+        <v>128</v>
+      </c>
       <c r="G10" s="39"/>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="102"/>
+      <c r="A11" s="100"/>
       <c r="B11" s="33" t="s">
         <v>77</v>
       </c>
@@ -2920,7 +2919,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="102"/>
+      <c r="A12" s="100"/>
       <c r="B12" s="17" t="s">
         <v>78</v>
       </c>
@@ -2935,7 +2934,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="102"/>
+      <c r="A13" s="100"/>
       <c r="B13" s="17" t="s">
         <v>79</v>
       </c>
@@ -2950,7 +2949,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="102"/>
+      <c r="A14" s="100"/>
       <c r="B14" s="43" t="s">
         <v>80</v>
       </c>
@@ -2965,7 +2964,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="102"/>
+      <c r="A15" s="100"/>
       <c r="B15" s="43" t="s">
         <v>81</v>
       </c>
@@ -2980,7 +2979,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="102"/>
+      <c r="A16" s="100"/>
       <c r="B16" s="33" t="s">
         <v>82</v>
       </c>
@@ -2995,12 +2994,12 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="102"/>
+      <c r="A17" s="100"/>
       <c r="B17" s="33" t="s">
         <v>83</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D17" s="43">
         <v>0</v>
@@ -3010,12 +3009,12 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="102"/>
+      <c r="A18" s="100"/>
       <c r="B18" s="33" t="s">
         <v>84</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D18" s="43">
         <v>2</v>
@@ -3025,7 +3024,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="103"/>
+      <c r="A19" s="101"/>
       <c r="B19" s="44" t="s">
         <v>107</v>
       </c>
@@ -3040,94 +3039,94 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="27.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="99" t="s">
+      <c r="A20" s="97" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" s="63" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" s="64" t="s">
+        <v>157</v>
+      </c>
+      <c r="D20" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="B20" s="64" t="s">
-        <v>138</v>
-      </c>
-      <c r="C20" s="65" t="s">
+      <c r="E20" s="64" t="s">
         <v>158</v>
       </c>
-      <c r="D20" s="64" t="s">
+    </row>
+    <row r="21" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="98"/>
+      <c r="B21" s="65" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="66" t="s">
+        <v>152</v>
+      </c>
+      <c r="D21" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="98"/>
+      <c r="B22" s="65" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" s="66" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" s="67">
+        <v>0.05</v>
+      </c>
+      <c r="E22" s="68" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="98"/>
+      <c r="B23" s="65" t="s">
+        <v>153</v>
+      </c>
+      <c r="C23" s="66" t="s">
+        <v>156</v>
+      </c>
+      <c r="D23" s="65">
+        <v>10</v>
+      </c>
+      <c r="E23" s="66" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="98"/>
+      <c r="B24" s="65" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24" s="66" t="s">
         <v>135</v>
       </c>
-      <c r="E20" s="65" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="100"/>
-      <c r="B21" s="66" t="s">
-        <v>142</v>
-      </c>
-      <c r="C21" s="67" t="s">
-        <v>153</v>
-      </c>
-      <c r="D21" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="67" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="100"/>
-      <c r="B22" s="66" t="s">
-        <v>143</v>
-      </c>
-      <c r="C22" s="67" t="s">
-        <v>137</v>
-      </c>
-      <c r="D22" s="68">
-        <v>0.05</v>
-      </c>
-      <c r="E22" s="69" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="100"/>
-      <c r="B23" s="66" t="s">
-        <v>154</v>
-      </c>
-      <c r="C23" s="67" t="s">
-        <v>157</v>
-      </c>
-      <c r="D23" s="66">
-        <v>10</v>
-      </c>
-      <c r="E23" s="67" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="100"/>
-      <c r="B24" s="66" t="s">
+      <c r="D24" s="67" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" s="68" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="99"/>
+      <c r="B25" s="69" t="s">
         <v>155</v>
       </c>
-      <c r="C24" s="67" t="s">
-        <v>136</v>
-      </c>
-      <c r="D24" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="E24" s="69" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="101"/>
-      <c r="B25" s="70" t="s">
-        <v>156</v>
-      </c>
-      <c r="C25" s="71" t="s">
+      <c r="C25" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="D25" s="70">
+      <c r="D25" s="69">
         <v>0.75</v>
       </c>
-      <c r="E25" s="71" t="s">
+      <c r="E25" s="70" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3177,67 +3176,67 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="26.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="77" t="s">
-        <v>164</v>
-      </c>
-      <c r="D2" s="78" t="s">
+      <c r="C2" s="76" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="79"/>
+      <c r="E2" s="78"/>
     </row>
     <row r="3" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="97"/>
+      <c r="A3" s="95"/>
       <c r="B3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="79" t="s">
         <v>57</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="80" t="s">
-        <v>144</v>
+      <c r="E3" s="79" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="97"/>
+      <c r="A4" s="95"/>
       <c r="B4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="80" t="s">
-        <v>145</v>
+      <c r="C4" s="79" t="s">
+        <v>144</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="80" t="s">
+      <c r="E4" s="79" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="96"/>
+      <c r="B5" s="10" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="98"/>
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="52" t="s">
         <v>147</v>
-      </c>
-      <c r="C5" s="52" t="s">
-        <v>148</v>
       </c>
       <c r="D5" s="53" t="s">
         <v>52</v>
       </c>
       <c r="E5" s="52" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="107" t="s">
         <v>39</v>
       </c>
       <c r="B6" s="23" t="s">
@@ -3248,14 +3247,14 @@
       </c>
       <c r="D6" s="25">
         <f>SpectraSimilarity!D2</f>
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E6" s="24" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="110"/>
+      <c r="A7" s="108"/>
       <c r="B7" s="23" t="s">
         <v>37</v>
       </c>
@@ -3271,18 +3270,18 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="55.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="111"/>
-      <c r="B8" s="81" t="s">
+      <c r="A8" s="109"/>
+      <c r="B8" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="82" t="s">
+      <c r="C8" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="83" t="b">
+      <c r="D8" s="82" t="b">
         <f>SpectraSimilarity!D11</f>
         <v>1</v>
       </c>
-      <c r="E8" s="82" t="s">
+      <c r="E8" s="81" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3300,9 +3299,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3336,7 +3335,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="100" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="28" t="s">
@@ -3346,15 +3345,17 @@
         <v>19</v>
       </c>
       <c r="D2" s="30">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="60"/>
+      <c r="F2" s="113" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="102"/>
+      <c r="A3" s="100"/>
       <c r="B3" s="3" t="s">
         <v>31</v>
       </c>
@@ -3362,51 +3363,49 @@
         <v>14</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="F3" s="93" t="s">
-        <v>165</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="F3" s="112"/>
     </row>
     <row r="4" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="102"/>
+      <c r="A4" s="100"/>
       <c r="B4" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>102</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F4" s="63" t="s">
-        <v>128</v>
+        <v>116</v>
+      </c>
+      <c r="F4" s="62" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="102"/>
+      <c r="A5" s="100"/>
       <c r="B5" s="17" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>102</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F5" s="61"/>
+        <v>166</v>
+      </c>
+      <c r="F5" s="60"/>
     </row>
     <row r="6" spans="1:6" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="102"/>
+      <c r="A6" s="100"/>
       <c r="B6" s="3" t="s">
         <v>33</v>
       </c>
@@ -3419,10 +3418,10 @@
       <c r="E6" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="F6" s="61"/>
+      <c r="F6" s="60"/>
     </row>
     <row r="7" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="102"/>
+      <c r="A7" s="100"/>
       <c r="B7" s="3" t="s">
         <v>34</v>
       </c>
@@ -3433,12 +3432,12 @@
         <v>2</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F7" s="61"/>
+        <v>123</v>
+      </c>
+      <c r="F7" s="60"/>
     </row>
     <row r="8" spans="1:6" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="102"/>
+      <c r="A8" s="100"/>
       <c r="B8" s="3" t="s">
         <v>35</v>
       </c>
@@ -3451,12 +3450,12 @@
       <c r="E8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="112" t="s">
-        <v>127</v>
+      <c r="F8" s="110" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="102"/>
+      <c r="A9" s="100"/>
       <c r="B9" s="17" t="s">
         <v>104</v>
       </c>
@@ -3469,15 +3468,15 @@
       <c r="E9" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="F9" s="113"/>
+      <c r="F9" s="111"/>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="102"/>
+      <c r="A10" s="100"/>
       <c r="B10" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D10" s="17">
         <v>50</v>
@@ -3485,10 +3484,10 @@
       <c r="E10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="113"/>
+      <c r="F10" s="111"/>
     </row>
     <row r="11" spans="1:6" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="102"/>
+      <c r="A11" s="100"/>
       <c r="B11" s="3" t="s">
         <v>36</v>
       </c>
@@ -3501,15 +3500,15 @@
       <c r="E11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="113"/>
+      <c r="F11" s="111"/>
     </row>
     <row r="12" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="102"/>
+      <c r="A12" s="100"/>
       <c r="B12" s="3" t="s">
         <v>105</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D12" s="17">
         <v>0</v>
@@ -3517,28 +3516,28 @@
       <c r="E12" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="113"/>
+      <c r="F12" s="111"/>
     </row>
     <row r="13" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="102"/>
+      <c r="A13" s="100"/>
       <c r="B13" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D13" s="17">
         <v>1</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="F13" s="113"/>
+        <v>113</v>
+      </c>
+      <c r="F13" s="111"/>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="102"/>
+      <c r="A14" s="100"/>
       <c r="B14" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>100</v>
@@ -3549,12 +3548,12 @@
       <c r="E14" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="113"/>
+      <c r="F14" s="111"/>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="102"/>
+      <c r="A15" s="100"/>
       <c r="B15" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>38</v>
@@ -3565,28 +3564,28 @@
       <c r="E15" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="114"/>
+      <c r="F15" s="112"/>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="102"/>
+      <c r="A16" s="100"/>
       <c r="B16" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>120</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>121</v>
       </c>
       <c r="D16" s="43">
         <v>0</v>
       </c>
       <c r="E16" s="59" t="s">
-        <v>122</v>
-      </c>
-      <c r="F16" s="61"/>
+        <v>121</v>
+      </c>
+      <c r="F16" s="60"/>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="103"/>
+      <c r="A17" s="101"/>
       <c r="B17" s="55" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>20</v>
@@ -3597,18 +3596,19 @@
       <c r="E17" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="62"/>
+      <c r="F17" s="61"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:A17"/>
     <mergeCell ref="F8:F15"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F8" r:id="rId1"/>
     <hyperlink ref="F4" r:id="rId2" location="standardizing-precursor-types"/>
-    <hyperlink ref="F3" r:id="rId3"/>
+    <hyperlink ref="F2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
